--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-741000.1906344316</v>
+        <v>-746862.5106696113</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12579530.24307936</v>
+        <v>12578350.28429853</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.47500173700515</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>395.6637592554416</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226442</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614972</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>72.11592928725618</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.8971060898003</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.6959415028824</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>27.74845236651838</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>100.2698474393481</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>194.5391205741084</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>112.4146879222726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1196,7 +1196,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>85.52909322846293</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>92.88634631714069</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>93.52529077486061</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1376,10 +1376,10 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>70.08054975833971</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>222.3011722836241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,7 +1582,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>116.5202319088042</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>72.6781827631432</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>54.22076354052909</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>91.04194885772858</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>4.259014417914918</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.15133834714382</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574981</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564994</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167826</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196067</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380039</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.2233042466795</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644677</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883891</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541095</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038798</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656612</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.9321193558824</v>
+        <v>1636.674678391047</v>
       </c>
       <c r="C2" t="n">
-        <v>956.9321193558824</v>
+        <v>1243.499176893977</v>
       </c>
       <c r="D2" t="n">
-        <v>956.9321193558824</v>
+        <v>858.0580481106451</v>
       </c>
       <c r="E2" t="n">
-        <v>956.9321193558824</v>
+        <v>858.0580481106451</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>441.1636096406229</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.937409596799</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297164</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.529637731763</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V2" t="n">
-        <v>1353.422828435281</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W2" t="n">
-        <v>1353.422828435281</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X2" t="n">
-        <v>1353.422828435281</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="Y2" t="n">
-        <v>956.9321193558824</v>
+        <v>2037.169424102444</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021424</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622346</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083715</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946027</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777345</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777345</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653859</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875478</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675965</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431038</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.6875846330377</v>
+        <v>524.5128505158823</v>
       </c>
       <c r="C4" t="n">
-        <v>354.6875846330377</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0544715355525</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475495</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475495</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475495</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>872.0983089188769</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>872.0983089188769</v>
+        <v>709.7208692071836</v>
       </c>
       <c r="W4" t="n">
-        <v>588.7679068500546</v>
+        <v>709.7208692071836</v>
       </c>
       <c r="X4" t="n">
-        <v>354.6875846330377</v>
+        <v>709.7208692071836</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.6875846330377</v>
+        <v>709.7208692071836</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>607.8495662439052</v>
+        <v>888.7242779591829</v>
       </c>
       <c r="C5" t="n">
-        <v>607.8495662439052</v>
+        <v>495.5487764621135</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>495.5487764621135</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>135.6402479253942</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253942</v>
+        <v>114.5970879866883</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253942</v>
+        <v>607.9173797052172</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354866</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172346</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>1919.030240172346</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>1548.031205140634</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X5" t="n">
-        <v>1158.57860007369</v>
+        <v>1685.709732749979</v>
       </c>
       <c r="Y5" t="n">
-        <v>762.0878909942915</v>
+        <v>1289.21902367058</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653859</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653859</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922402</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>841.6675951167313</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475495</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475495</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>748.4385197402383</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>482.4591745610626</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>199.1287724922402</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>199.1287724922402</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1287724922402</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>875.9132849266141</v>
+        <v>182.839545823232</v>
       </c>
       <c r="C8" t="n">
-        <v>875.9132849266141</v>
+        <v>182.839545823232</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>182.839545823232</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>182.839545823232</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>169.9855113936138</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>160.863159922021</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>160.863159922021</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,19 +4808,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1729.796052500819</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.797017469107</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1272.403994006013</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>875.9132849266141</v>
+        <v>182.839545823232</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.7105387425078</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>429.7105387425078</v>
+        <v>778.5548747090853</v>
       </c>
       <c r="D10" t="n">
-        <v>429.7105387425078</v>
+        <v>622.9217616116</v>
       </c>
       <c r="E10" t="n">
-        <v>429.7105387425078</v>
+        <v>467.3629494708025</v>
       </c>
       <c r="F10" t="n">
-        <v>429.7105387425078</v>
+        <v>310.0370146837755</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>141.782960783221</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>141.782960783221</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>429.7105387425078</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>429.7105387425078</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.7105387425078</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1758.912988943183</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1437.533762592308</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1123.888908955169</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>793.1016592179076</v>
       </c>
       <c r="F11" t="n">
         <v>722.3132251185756</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527726</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838007</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2257.769356838007</v>
+        <v>2087.611459508386</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.222718167679</v>
+        <v>2087.611459508386</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.2905074865361</v>
+        <v>474.9551552953891</v>
       </c>
       <c r="C13" t="n">
-        <v>145.8816646987192</v>
+        <v>376.5463125075722</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8816646987192</v>
+        <v>292.7094745562808</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>208.9469375616771</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457733</v>
+        <v>1031.988138288162</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127914</v>
+        <v>837.8050682551805</v>
       </c>
       <c r="W13" t="n">
-        <v>582.430342890163</v>
+        <v>626.270941332552</v>
       </c>
       <c r="X13" t="n">
-        <v>509.0180370688063</v>
+        <v>626.270941332552</v>
       </c>
       <c r="Y13" t="n">
-        <v>357.7022510316435</v>
+        <v>474.9551552953891</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1780.935942880365</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1459.556716529489</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3051.18793718504</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>3051.18793718504</v>
       </c>
       <c r="V14" t="n">
-        <v>3011.239105293021</v>
+        <v>3051.18793718504</v>
       </c>
       <c r="W14" t="n">
-        <v>2712.036345407502</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.074780904746</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>2109.634413445568</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420615</v>
+        <v>317.7028133078931</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542446</v>
+        <v>317.7028133078931</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029532</v>
+        <v>233.8659753566017</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>150.1034383619981</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>1067.062634295801</v>
+        <v>793.9644698127915</v>
       </c>
       <c r="W16" t="n">
-        <v>855.5285073731728</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="X16" t="n">
-        <v>855.5285073731728</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.506953487169</v>
+        <v>431.1145568530004</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5762,7 +5762,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222406</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960404</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343044</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.125737939027</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388517</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.125737939027</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,19 +6461,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388004</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958355</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
         <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
         <v>2986.344026377456</v>
@@ -6491,10 +6491,10 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
         <v>3060.131976164851</v>
@@ -6503,10 +6503,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835499</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315959</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3006.8438335579</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3303.341514273831</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929714</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404859</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652537</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374194</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465407</v>
+        <v>581.6877729018962</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>764.8774069331055</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250181</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273676</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400705</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045788</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027474</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7093,19 +7093,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296507</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7181,10 +7181,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,31 +7193,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7576,16 +7576,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>564.5028797591303</v>
+        <v>379.1327982191743</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,16 +8061,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>93.76504805760216</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>537.1052683063419</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>210.7551798924868</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>216.8905660381766</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>93.76504805760216</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>162.9122342875683</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,7 +8456,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>468.0425993879824</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,13 +8538,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>270.9005442600802</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,13 +8936,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>577.006990218999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939645</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488197</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>271.5666319322503</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.14631731024882</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>94.98585953698193</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>87.98302383697158</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>95.96652048091643</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>223.4378177638132</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.41534862650991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.6512898296473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1103732.471689997</v>
+        <v>1103130.924076236</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1103732.471689997</v>
+        <v>1103130.924076236</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>981962.7265307166</v>
+        <v>981962.7265307165</v>
       </c>
     </row>
     <row r="6">
@@ -26332,19 +26332,19 @@
         <v>180332.1780933569</v>
       </c>
       <c r="I2" t="n">
+        <v>180332.1780933568</v>
+      </c>
+      <c r="J2" t="n">
+        <v>180332.1780933568</v>
+      </c>
+      <c r="K2" t="n">
         <v>180332.1780933569</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>180332.1780933567</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>180332.1780933568</v>
-      </c>
-      <c r="L2" t="n">
-        <v>180332.1780933571</v>
-      </c>
-      <c r="M2" t="n">
-        <v>180332.1780933569</v>
       </c>
       <c r="N2" t="n">
         <v>180332.1780933569</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972856</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081115</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805104</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
+        <v>147651.9979996332</v>
+      </c>
+      <c r="I4" t="n">
         <v>147651.9979996333</v>
       </c>
-      <c r="I4" t="n">
-        <v>147651.9979996332</v>
-      </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26457,7 +26457,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257502.5776926795</v>
+        <v>-253752.6794921451</v>
       </c>
       <c r="C6" t="n">
-        <v>-75297.6294008237</v>
+        <v>-79894.02245809001</v>
       </c>
       <c r="D6" t="n">
-        <v>-81313.4310585972</v>
+        <v>-89049.72028198862</v>
       </c>
       <c r="E6" t="n">
-        <v>-105842.6392575353</v>
+        <v>-106052.3708042248</v>
       </c>
       <c r="F6" t="n">
-        <v>6279.922216509178</v>
+        <v>6070.190669819572</v>
       </c>
       <c r="G6" t="n">
-        <v>-72914.91475847797</v>
+        <v>-72914.91475847788</v>
       </c>
       <c r="H6" t="n">
-        <v>-25489.58922179599</v>
+        <v>-25489.58922179597</v>
       </c>
       <c r="I6" t="n">
-        <v>-25489.58922179593</v>
+        <v>-25489.58922179614</v>
       </c>
       <c r="J6" t="n">
-        <v>-238531.5068190816</v>
+        <v>-232015.2216645083</v>
       </c>
       <c r="K6" t="n">
-        <v>-31729.357624579</v>
+        <v>-31729.35762457897</v>
       </c>
       <c r="L6" t="n">
-        <v>-86911.94655919993</v>
+        <v>-90960.78376967253</v>
       </c>
       <c r="M6" t="n">
-        <v>-67690.41868141899</v>
+        <v>-68742.11369260721</v>
       </c>
       <c r="N6" t="n">
-        <v>-25489.58922179599</v>
+        <v>-25489.58922179597</v>
       </c>
       <c r="O6" t="n">
-        <v>-53257.28326456714</v>
+        <v>-53257.28326456717</v>
       </c>
       <c r="P6" t="n">
-        <v>-25489.58922179599</v>
+        <v>-25489.58922179584</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,25 +26805,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293136</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.626839746607</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>375.2504923483169</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.36736870143528</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434351</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925536</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27591,16 +27591,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>210.4684745532619</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>32.42244563758373</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.7938567514005</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>370.8092372681025</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>68.2332193153226</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>88.04528326640971</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27859,10 +27859,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>24.53905781618718</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>300.0289857878108</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>73.68516704440822</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>38.23819033443228</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,7 +28071,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,22 +28752,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>28.01250026485255</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>37.61298457733328</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634528452</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,16 +29226,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,13 +29542,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566375</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893232</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224715</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861253959</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,10 +30177,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.636002634528921</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>28.01250026485198</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,19 +30648,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>415.3843884213463</v>
+        <v>230.0143068813902</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>3.70470120068393</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>451.7331554521753</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>93.07534195014065</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>73.83216285893928</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>3.70470120068393</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>77.54012143340162</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>314.7944296574907</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,13 +35258,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>178.2129853711913</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,10 +36048,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398113</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133843</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,10 +36288,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,16 +36522,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101028</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851011</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,13 +36838,13 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114501</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>432.81261891552</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>75.16693519537672</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>82.70543230055094</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>271.2165915595504</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269207</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,10 +37473,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>192.3607498019308</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
